--- a/a.xlsx
+++ b/a.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Go XLSX"/>
-  <workbookPr showObjects="all" date1904="false"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" tabRatio="204" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView windowWidth="28800" windowHeight="11805" tabRatio="204"/>
   </bookViews>
   <sheets>
-    <sheet name="test" sheetId="1" r:id="rId1" state="visible"/>
+    <sheet name="test" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr iterateCount="100" refMode="A1" iterateDelta="0.001"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="129">
   <si>
     <t>Кому</t>
   </si>
@@ -45,147 +44,1048 @@
     <t>*2,05</t>
   </si>
   <si>
-    <t>---</t>
-  </si>
-  <si>
-    <t>6542</t>
-  </si>
-  <si>
-    <t>CB0409</t>
+    <t>titan</t>
+  </si>
+  <si>
+    <t>202641</t>
+  </si>
+  <si>
+    <t>NK</t>
+  </si>
+  <si>
+    <t>ДИСК ТОPМОЗНОЙ</t>
+  </si>
+  <si>
+    <t>914.00</t>
+  </si>
+  <si>
+    <t>942</t>
+  </si>
+  <si>
+    <t>1554.30</t>
+  </si>
+  <si>
+    <t>1931.10</t>
+  </si>
+  <si>
+    <t>tiM</t>
+  </si>
+  <si>
+    <t>254057</t>
+  </si>
+  <si>
+    <t>FRENKIT</t>
+  </si>
+  <si>
+    <t>Ремкомплект суппорта передний HONDA CIVIC VI SERIES  01-95-&gt;02-01 / MITSUBISHI CARISMA</t>
+  </si>
+  <si>
+    <t>156.97</t>
+  </si>
+  <si>
+    <t>350.00</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>239.25</t>
+  </si>
+  <si>
+    <t>297.25</t>
+  </si>
+  <si>
+    <t>4PK880</t>
+  </si>
+  <si>
+    <t>MITSUBOSHI</t>
+  </si>
+  <si>
+    <t>РЕМЕНЬ  /4PK885</t>
+  </si>
+  <si>
+    <t>214.00</t>
+  </si>
+  <si>
+    <t>265</t>
+  </si>
+  <si>
+    <t>437.25</t>
+  </si>
+  <si>
+    <t>543.25</t>
+  </si>
+  <si>
+    <t>6PK1040</t>
+  </si>
+  <si>
+    <t>Ремень поликлин TY 1-2MZ-FE MCU1#, MCU2#, RX300/330/350 (ALT), FO Focus II 1.4/1.6 04-10 (ALT)</t>
+  </si>
+  <si>
+    <t>302.00</t>
+  </si>
+  <si>
+    <t>469</t>
+  </si>
+  <si>
+    <t>773.85</t>
+  </si>
+  <si>
+    <t>961.45</t>
+  </si>
+  <si>
+    <t>tim</t>
+  </si>
+  <si>
+    <t>90109A0023</t>
+  </si>
+  <si>
+    <t>TOYOTA</t>
+  </si>
+  <si>
+    <t>БОЛТ/BOLT</t>
+  </si>
+  <si>
+    <t>104.90</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>179.85</t>
+  </si>
+  <si>
+    <t>223.45</t>
+  </si>
+  <si>
+    <t>AG143</t>
+  </si>
+  <si>
+    <t>GOODWILL</t>
+  </si>
+  <si>
+    <t>ФИЛЬТР ВОЗДУШНЫЙ</t>
+  </si>
+  <si>
+    <t>235.00</t>
+  </si>
+  <si>
+    <t>273</t>
+  </si>
+  <si>
+    <t>450.45</t>
+  </si>
+  <si>
+    <t>559.65</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>HKT</t>
+  </si>
+  <si>
+    <t>Крышка радиатора</t>
+  </si>
+  <si>
+    <t>207.92</t>
+  </si>
+  <si>
+    <t>450.00</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>328.35</t>
+  </si>
+  <si>
+    <t>407.95</t>
+  </si>
+  <si>
+    <t>C1809</t>
+  </si>
+  <si>
+    <t>SAKURA</t>
+  </si>
+  <si>
+    <t>Фильтр масляный KIA SPECTRA 1.6 2004 -   MAZDA 3 1.6 2004 - 2009  MAZDA 3 1.6 2003 - 2009</t>
+  </si>
+  <si>
+    <t>154.00</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>254.10</t>
+  </si>
+  <si>
+    <t>315.70</t>
+  </si>
+  <si>
+    <t>titanMR403485</t>
+  </si>
+  <si>
+    <t>CQM19</t>
   </si>
   <si>
     <t>CTR</t>
   </si>
   <si>
-    <t>Шаровая опора, правая SB3742R, SB3744R (Старый CBT65)</t>
-  </si>
-  <si>
-    <t>1383</t>
-  </si>
-  <si>
-    <t>2281.95</t>
-  </si>
-  <si>
-    <t>2835.15</t>
-  </si>
-  <si>
-    <t>CB0410</t>
-  </si>
-  <si>
-    <t>Шаровая опора, левая SB3742L, SB3744L (Старый CBT66)</t>
-  </si>
-  <si>
-    <t>SE3511</t>
+    <t>Рычаг подвески| прав/лев |</t>
+  </si>
+  <si>
+    <t>709.00</t>
+  </si>
+  <si>
+    <t>768</t>
+  </si>
+  <si>
+    <t>1267.20</t>
+  </si>
+  <si>
+    <t>1574.40</t>
+  </si>
+  <si>
+    <t>MS1522</t>
+  </si>
+  <si>
+    <t>MASUMA</t>
+  </si>
+  <si>
+    <t>MS-1522_колодки дисковые задние!\ Toyota Rav4 2.4/3.5i/2.4D 4WD 06&gt;</t>
+  </si>
+  <si>
+    <t>778.00</t>
+  </si>
+  <si>
+    <t>1600.00</t>
+  </si>
+  <si>
+    <t>755</t>
+  </si>
+  <si>
+    <t>1245.75</t>
+  </si>
+  <si>
+    <t>1547.75</t>
+  </si>
+  <si>
+    <t>PN2466</t>
+  </si>
+  <si>
+    <t>NIBK</t>
+  </si>
+  <si>
+    <t>Колодки тормозные дисковые NISSAN X-TRAIL 2.0 2007 - 2013  NISSAN TIIDA 1.6 2007 - 2012  NISSAN JUKE</t>
+  </si>
+  <si>
+    <t>1150.00</t>
+  </si>
+  <si>
+    <t>2200.00</t>
+  </si>
+  <si>
+    <t>1150</t>
+  </si>
+  <si>
+    <t>1897.50</t>
+  </si>
+  <si>
+    <t>2357.50</t>
+  </si>
+  <si>
+    <t>SEB041R</t>
   </si>
   <si>
     <t>555</t>
   </si>
   <si>
-    <t>Наконечник рулевой</t>
-  </si>
-  <si>
-    <t>319.94</t>
-  </si>
-  <si>
-    <t>800.00</t>
-  </si>
-  <si>
-    <t>616</t>
-  </si>
-  <si>
-    <t>1016.40</t>
-  </si>
-  <si>
-    <t>1262.80</t>
-  </si>
-  <si>
-    <t>tim</t>
-  </si>
-  <si>
-    <t>JDA2011V</t>
-  </si>
-  <si>
-    <t>JD</t>
-  </si>
-  <si>
-    <t>Фильтр воздушный</t>
-  </si>
-  <si>
-    <t>152.70</t>
-  </si>
-  <si>
-    <t>400.00</t>
-  </si>
-  <si>
-    <t>158.06</t>
-  </si>
-  <si>
-    <t>260.80</t>
-  </si>
-  <si>
-    <t>324.02</t>
-  </si>
-  <si>
-    <t>пул</t>
-  </si>
-  <si>
-    <t>D1276H</t>
-  </si>
-  <si>
-    <t>KASHIYAMA</t>
-  </si>
-  <si>
-    <t>Колодки тормозные, передние (с антискрипной пластиной)</t>
-  </si>
-  <si>
-    <t>1363</t>
-  </si>
-  <si>
-    <t>2248.95</t>
-  </si>
-  <si>
-    <t>2794.15</t>
+    <t>Наконечник рул прав Mits Pajero V83W 06-</t>
+  </si>
+  <si>
+    <t>1057.00</t>
+  </si>
+  <si>
+    <t>1057</t>
+  </si>
+  <si>
+    <t>1744.05</t>
+  </si>
+  <si>
+    <t>2166.85</t>
+  </si>
+  <si>
+    <t>125905</t>
+  </si>
+  <si>
+    <t>FA1</t>
+  </si>
+  <si>
+    <t>Пружина</t>
+  </si>
+  <si>
+    <t>24.11</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>47.85</t>
+  </si>
+  <si>
+    <t>59.45</t>
+  </si>
+  <si>
+    <t>CLT50</t>
+  </si>
+  <si>
+    <t>Тяга стабилизатора Toyota RAV 4</t>
+  </si>
+  <si>
+    <t>594.00</t>
+  </si>
+  <si>
+    <t>611</t>
+  </si>
+  <si>
+    <t>1008.15</t>
+  </si>
+  <si>
+    <t>1252.55</t>
+  </si>
+  <si>
+    <t>SB4592</t>
+  </si>
+  <si>
+    <t>Шаровая опора нижн ni sunny 86-</t>
+  </si>
+  <si>
+    <t>667.00</t>
+  </si>
+  <si>
+    <t>1400.00</t>
+  </si>
+  <si>
+    <t>667</t>
+  </si>
+  <si>
+    <t>1100.55</t>
+  </si>
+  <si>
+    <t>1367.35</t>
+  </si>
+  <si>
+    <t>ZVPP013</t>
+  </si>
+  <si>
+    <t>ZZVF</t>
+  </si>
+  <si>
+    <t>НАПРАВЛЯЮЩАЯ СУППОРТА ТОРМОЗНОГО ЗАДНЕГО TOYOTA LAND CRUISER (BJ73 LJ7 RJ7 HZJ7 PZJ7 KZJ7)(99-01)</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>148.50</t>
+  </si>
+  <si>
+    <t>184.50</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+  </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -307,7 +1207,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -328,9 +1228,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="16200000" scaled="true"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -347,7 +1247,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="16200000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -417,7 +1317,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -443,7 +1343,7 @@
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -505,32 +1405,28 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.85"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col max="0" min="0" style="0" width="12.5" customWidth="true"/>
-    <col max="1" min="1" style="0" width="22.8" customWidth="true"/>
-    <col max="2" min="2" style="0" width="12.5" customWidth="true"/>
-    <col max="3" min="3" style="0" width="19.2" customWidth="true"/>
-    <col max="4" min="4" style="0" width="12.5" customWidth="true"/>
-    <col max="5" min="5" style="0" width="24" customWidth="true"/>
+    <col min="1" max="1" width="15.6" customWidth="true"/>
+    <col min="2" max="2" width="19.6" customWidth="true"/>
+    <col min="3" max="4" width="19.2" customWidth="true"/>
+    <col min="5" max="5" width="18.6" customWidth="true"/>
+    <col min="7" max="7" width="12" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="true">
+    <row r="1" ht="15" customHeight="true" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -559,180 +1455,472 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="true">
+    <row r="2" ht="15" customHeight="true" spans="1:9">
       <c r="A2" t="s">
-        <v/>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v/>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v/>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v/>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2">
+        <v>1700</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="true" spans="1:9">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="true" spans="1:9">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4">
+        <v>550</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="true" spans="1:9">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5">
+        <v>1000</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="true" spans="1:9">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="true" spans="1:9">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7">
+        <v>600</v>
+      </c>
+      <c r="G7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="true" spans="1:9">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="true" spans="1:9">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9">
+        <v>350</v>
+      </c>
+      <c r="G9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="true" spans="1:9">
+      <c r="A10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10">
+        <v>1450</v>
+      </c>
+      <c r="G10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" t="s">
+        <v>76</v>
+      </c>
+      <c r="I10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="true" spans="1:9">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="true" spans="1:9">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
-        <v/>
-      </c>
-      <c r="H2" t="s">
-        <v/>
-      </c>
-      <c r="I2" t="s">
-        <v/>
+      <c r="B12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I12" t="s">
+        <v>93</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="true">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
+    <row r="13" ht="15" customHeight="true" spans="1:9">
+      <c r="A13" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
+      <c r="B13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13">
+        <v>1700</v>
+      </c>
+      <c r="G13" t="s">
+        <v>98</v>
+      </c>
+      <c r="H13" t="s">
+        <v>99</v>
+      </c>
+      <c r="I13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="true" spans="1:9">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" t="s">
+        <v>106</v>
+      </c>
+      <c r="H14" t="s">
+        <v>107</v>
+      </c>
+      <c r="I14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="true" spans="1:9">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E15" t="s">
+        <v>111</v>
+      </c>
+      <c r="F15">
+        <v>1250</v>
+      </c>
+      <c r="G15" t="s">
+        <v>112</v>
+      </c>
+      <c r="H15" t="s">
+        <v>113</v>
+      </c>
+      <c r="I15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="true" spans="1:9">
+      <c r="A16" t="s">
         <v>9</v>
       </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>16</v>
+      <c r="B16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" t="s">
+        <v>117</v>
+      </c>
+      <c r="F16" t="s">
+        <v>118</v>
+      </c>
+      <c r="G16" t="s">
+        <v>119</v>
+      </c>
+      <c r="H16" t="s">
+        <v>120</v>
+      </c>
+      <c r="I16" t="s">
+        <v>121</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="true">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="true">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="true">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="true">
-      <c r="A7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" t="s">
+    <row r="17" ht="15" customHeight="true" spans="1:9">
+      <c r="A17" t="s">
         <v>39</v>
       </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" t="s">
-        <v>42</v>
+      <c r="B17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" t="s">
+        <v>124</v>
+      </c>
+      <c r="E17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" t="s">
+        <v>126</v>
+      </c>
+      <c r="H17" t="s">
+        <v>127</v>
+      </c>
+      <c r="I17" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>